--- a/Hardware/Project Outputs for Heliotrope_Logic/BOM/Bill of Materials-Heliotrope_Logic.xlsx
+++ b/Hardware/Project Outputs for Heliotrope_Logic/BOM/Bill of Materials-Heliotrope_Logic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\Heliotrope_Logic\Project Outputs for Heliotrope_Logic\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C558282D-DC51-4877-8CF2-D63D3A0C4B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9D51C78-8E78-411D-8D8D-9C6FB0E4B06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="2205" windowWidth="28800" windowHeight="15435" xr2:uid="{CBC96165-E1F5-4656-A628-45F91FA8CCCD}"/>
+    <workbookView xWindow="3885" yWindow="2205" windowWidth="28800" windowHeight="15435" xr2:uid="{A5286B9F-990A-41B9-8351-413D3A10615C}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Heliotrope_Lo" sheetId="1" r:id="rId1"/>
@@ -579,7 +579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CC7A06-6125-4E50-9FE5-581C718A0861}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E809E7-09C7-44F7-AD1C-EB125D1A6C5C}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Hardware/Project Outputs for Heliotrope_Logic/BOM/Bill of Materials-Heliotrope_Logic.xlsx
+++ b/Hardware/Project Outputs for Heliotrope_Logic/BOM/Bill of Materials-Heliotrope_Logic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\Heliotrope_Logic\Project Outputs for Heliotrope_Logic\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9D51C78-8E78-411D-8D8D-9C6FB0E4B06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B36DEFCF-BE3E-430A-822B-CAB93AC42933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="2205" windowWidth="28800" windowHeight="15435" xr2:uid="{A5286B9F-990A-41B9-8351-413D3A10615C}"/>
+    <workbookView xWindow="3885" yWindow="2205" windowWidth="28800" windowHeight="15435" xr2:uid="{AC33C4EC-7AA3-44AC-92DB-4879FCDC2DC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Heliotrope_Lo" sheetId="1" r:id="rId1"/>
@@ -579,7 +579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E809E7-09C7-44F7-AD1C-EB125D1A6C5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF59D49-DDB5-4E04-8DDF-F1B13DDA0863}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Hardware/Project Outputs for Heliotrope_Logic/BOM/Bill of Materials-Heliotrope_Logic.xlsx
+++ b/Hardware/Project Outputs for Heliotrope_Logic/BOM/Bill of Materials-Heliotrope_Logic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\Heliotrope_Logic\Project Outputs for Heliotrope_Logic\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B36DEFCF-BE3E-430A-822B-CAB93AC42933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{895EFD8F-0BAD-48F3-98EC-29A394CFC939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="2205" windowWidth="28800" windowHeight="15435" xr2:uid="{AC33C4EC-7AA3-44AC-92DB-4879FCDC2DC5}"/>
+    <workbookView xWindow="3885" yWindow="2205" windowWidth="28800" windowHeight="15435" xr2:uid="{C60DBC35-51E9-4B57-B467-CC0D5236716B}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Heliotrope_Lo" sheetId="1" r:id="rId1"/>
@@ -579,7 +579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF59D49-DDB5-4E04-8DDF-F1B13DDA0863}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7724875E-4D43-4077-B303-FF09BFDC1B44}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Hardware/Project Outputs for Heliotrope_Logic/BOM/Bill of Materials-Heliotrope_Logic.xlsx
+++ b/Hardware/Project Outputs for Heliotrope_Logic/BOM/Bill of Materials-Heliotrope_Logic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\Heliotrope_Logic\Project Outputs for Heliotrope_Logic\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{895EFD8F-0BAD-48F3-98EC-29A394CFC939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C62A2EF-E12F-4BA9-B89F-C024D56A9402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="2205" windowWidth="28800" windowHeight="15435" xr2:uid="{C60DBC35-51E9-4B57-B467-CC0D5236716B}"/>
+    <workbookView xWindow="3885" yWindow="2205" windowWidth="28800" windowHeight="15435" xr2:uid="{B301855D-F335-4C8B-81FA-01724E6076FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Heliotrope_Lo" sheetId="1" r:id="rId1"/>
@@ -579,7 +579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7724875E-4D43-4077-B303-FF09BFDC1B44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C190744-000D-44B8-8C84-5B18F746285D}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Hardware/Project Outputs for Heliotrope_Logic/BOM/Bill of Materials-Heliotrope_Logic.xlsx
+++ b/Hardware/Project Outputs for Heliotrope_Logic/BOM/Bill of Materials-Heliotrope_Logic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\Heliotrope_Logic\Project Outputs for Heliotrope_Logic\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C62A2EF-E12F-4BA9-B89F-C024D56A9402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{575C2FD3-AE35-4D1F-BAFB-BA120E928B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="2205" windowWidth="28800" windowHeight="15435" xr2:uid="{B301855D-F335-4C8B-81FA-01724E6076FC}"/>
+    <workbookView xWindow="3885" yWindow="2205" windowWidth="28800" windowHeight="15435" xr2:uid="{B642C183-8562-4278-8F04-BF232FA1D6AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Heliotrope_Lo" sheetId="1" r:id="rId1"/>
@@ -579,7 +579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C190744-000D-44B8-8C84-5B18F746285D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CDF42E1-C626-49EB-B1A0-298CB742219D}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
